--- a/Data/model_outputs_baseline/energy/energy_use_vector_SFH.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_SFH.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>2897223961.816934</v>
+        <v>3074959733.238696</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>2900606813.667567</v>
+        <v>3078550112.636803</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>2904034619.657368</v>
+        <v>3082188203.972132</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>2907507953.954734</v>
+        <v>3085874616.636543</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>2911027396.495583</v>
+        <v>3089609966.143238</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>2914593532.933009</v>
+        <v>3093394874.073325</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>2918206954.579476</v>
+        <v>3097229968.014468</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>2921868258.341244</v>
+        <v>3101115881.491288</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>2925578046.644775</v>
+        <v>3105053253.887258</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>2929336927.354787</v>
+        <v>3109042730.357722</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>2933145513.683714</v>
+        <v>3113084961.733812</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>2937004424.09231</v>
+        <v>3117180604.416943</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>2940914282.181101</v>
+        <v>3121330320.263617</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>2944875716.57252</v>
+        <v>3125534776.460312</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>2948889360.783398</v>
+        <v>3129794645.388175</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>2952955853.087719</v>
+        <v>3134110604.477326</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>2957075836.369359</v>
+        <v>3138483336.05059</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>2961249957.964692</v>
+        <v>3142913527.156439</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>2965478869.494936</v>
+        <v>3147401869.391041</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>2969763226.688075</v>
+        <v>3151949058.70928</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>2974103689.19035</v>
+        <v>3156555795.224657</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>2978500920.367206</v>
+        <v>3161222782.998048</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>2982955587.093725</v>
+        <v>3165950729.815269</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>2987468359.534568</v>
+        <v>3170740346.953516</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>2992039910.913479</v>
+        <v>3175592348.93674</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>2996670917.272474</v>
+        <v>3180507453.280056</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3001362057.220896</v>
+        <v>3185486380.223395</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3006114011.674497</v>
+        <v>3190529852.454601</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3010927463.584883</v>
+        <v>3195638594.822256</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3015803097.659565</v>
+        <v>3200813334.038568</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3020741600.073053</v>
+        <v>3206054798.372742</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3025743658.169409</v>
+        <v>3211363717.335282</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3030809960.156754</v>
+        <v>3216740821.35376</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3035941194.794327</v>
+        <v>3222186841.440669</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3041138051.072695</v>
+        <v>3227702508.854035</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3046401217.887874</v>
+        <v>3233288554.751517</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3051731383.710082</v>
+        <v>3238945709.838863</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>3057129236.248038</v>
+        <v>3244674704.013605</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>3062595462.109711</v>
+        <v>3250476266.005002</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>3068130746.460542</v>
+        <v>3256351123.011276</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>3073735772.680203</v>
+        <v>3262300000.335347</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>3079411222.019123</v>
+        <v>3268323621.020255</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>3085157773.255967</v>
+        <v>3274422705.485649</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>3090976102.357454</v>
+        <v>3280597971.166729</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>3096866882.141895</v>
+        <v>3286850132.157132</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>3102830781.947962</v>
+        <v>3293179898.857398</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>3108868467.310256</v>
+        <v>3299587977.63063</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>3114980599.643359</v>
+        <v>3306075070.467156</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>3121167835.93603</v>
+        <v>3312641874.659976</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>3127430828.457451</v>
+        <v>3319289082.492976</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>3133770224.47731</v>
+        <v>3326017380.943849</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>3140186666.001748</v>
+        <v>3332827451.403831</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>3146680789.527109</v>
+        <v>3339719969.416367</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>3153253225.81368</v>
+        <v>3346695604.436933</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>3159904599.681422</v>
+        <v>3353755019.616284</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>3166635529.830012</v>
+        <v>3360898871.609408</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>3173446628.685366</v>
+        <v>3368127810.412672</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>3180338502.27493</v>
+        <v>3375442479.231435</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>3187311750.134075</v>
+        <v>3382843514.380723</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>3194366965.245941</v>
+        <v>3390331545.221363</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>3201504734.017096</v>
+        <v>3397907194.134158</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>3208725636.291361</v>
+        <v>3405571076.534574</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>3216030245.404265</v>
+        <v>3413323800.930492</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>3223419128.280407</v>
+        <v>3421165969.025608</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>3230892845.576221</v>
+        <v>3429098175.870883</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>3238451951.870358</v>
+        <v>3437121010.06668</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>3246096995.904122</v>
+        <v>3445235054.017886</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>3253828520.874155</v>
+        <v>3453440884.244578</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>3261647064.779608</v>
+        <v>3461739071.750505</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>3269553160.825968</v>
+        <v>3470130182.451673</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>3277547337.887619</v>
+        <v>3478614777.667273</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>3285630121.031086</v>
+        <v>3487193414.675051</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>3293802032.100904</v>
+        <v>3495866647.333095</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>3302063590.369863</v>
+        <v>3504635026.769984</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>3310415313.255286</v>
+        <v>3513499102.144998</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>3318857717.102851</v>
+        <v>3522459421.480034</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>3327391318.039376</v>
+        <v>3531516532.564705</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>3336016632.895703</v>
+        <v>3540670983.935827</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>3344734180.200803</v>
+        <v>3549923325.932536</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>3353544481.247918</v>
+        <v>3559274111.827802</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>3362448061.233405</v>
+        <v>3568723899.037169</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>3371445450.468786</v>
+        <v>3578273250.405134</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>3380537185.666225</v>
+        <v>3587922735.569496</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>3389723811.297446</v>
+        <v>3597672932.40365</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>3399005881.025961</v>
+        <v>3607524428.536658</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>3408383959.212035</v>
+        <v>3617477822.95055</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>3417858622.489844</v>
+        <v>3627533727.654232</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>3427430461.415747</v>
+        <v>3637692769.43288</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>3437100082.186524</v>
+        <v>3647955591.671582</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>3446868108.426098</v>
+        <v>3658322856.251663</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>3456735183.038939</v>
+        <v>3668795245.517809</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>3466701970.128193</v>
+        <v>3679373464.313845</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>3476769156.976145</v>
+        <v>3690058242.084712</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>3486937456.084505</v>
+        <v>3700850335.0419</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>3497207607.271592</v>
+        <v>3711750528.389315</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>3507580379.823305</v>
+        <v>3722759638.606167</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>3518056574.694429</v>
+        <v>3733878515.783368</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>3528637026.756628</v>
+        <v>3745108046.009372</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>3539322607.089102</v>
+        <v>3756449153.801409</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>3550114225.307728</v>
+        <v>3767902804.577498</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>3561012831.9282</v>
+        <v>3779470007.164538</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>3572019420.758439</v>
+        <v>3791151816.337503</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>3583135031.315289</v>
+        <v>3802949335.384408</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>3594360751.260414</v>
+        <v>3814863718.691598</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>3605697718.849833</v>
+        <v>3826896174.343611</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>3617147125.391732</v>
+        <v>3839047966.731711</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>3628710217.706563</v>
+        <v>3851320419.164938</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>3640388300.583622</v>
+        <v>3863714916.477416</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>3652182739.228054</v>
+        <v>3876232907.625407</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>3664094961.691953</v>
+        <v>3888875908.267622</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>3676126461.283384</v>
+        <v>3901645503.321958</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>3688278798.946788</v>
+        <v>3914543349.492005</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>3700553605.608443</v>
+        <v>3927571177.756346</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>3712952584.480389</v>
+        <v>3940730795.813829</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>3725477513.316281</v>
+        <v>3954024090.47784</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>3738130246.612755</v>
+        <v>3967453030.012652</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>3750912717.749642</v>
+        <v>3981019666.40502</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>3763826941.06284</v>
+        <v>3994726137.564136</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>3776875013.843252</v>
+        <v>4008574669.443239</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>3790059118.255714</v>
+        <v>4022567578.076274</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>3803381523.171762</v>
+        <v>4036707271.523052</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>3816844585.910249</v>
+        <v>4050996251.716678</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>3830450753.880126</v>
+        <v>4065437116.207118</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>3844202566.119793</v>
+        <v>4080032559.794962</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>3858102654.727735</v>
+        <v>4094785376.049818</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>3872153746.179355</v>
+        <v>4109698458.707985</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>3886358662.525342</v>
+        <v>4124774802.944256</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>3900720322.46699</v>
+        <v>4140017506.513274</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>3915241742.304508</v>
+        <v>4155429770.755984</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>3929926036.754431</v>
+        <v>4171014901.467182</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>3944776419.632827</v>
+        <v>4186776309.620663</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>3959796204.401322</v>
+        <v>4202717511.948724</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>3974988804.573307</v>
+        <v>4218842131.373298</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>3990357733.978297</v>
+        <v>4235153897.286518</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>4005906606.882631</v>
+        <v>4251656645.678842</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>4021639137.965377</v>
+        <v>4268354319.113465</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>4037559142.148677</v>
+        <v>4285250966.546245</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>4053670534.282182</v>
+        <v>4302350742.990825</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>4069977328.681925</v>
+        <v>4319657909.029161</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>4086483638.524233</v>
+        <v>4337176830.168283</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>4103193675.095973</v>
+        <v>4354911976.044555</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>4120111746.902864</v>
+        <v>4372867919.477245</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>4137242258.638014</v>
+        <v>4391049335.373839</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>4154589710.013567</v>
+        <v>4409460999.489956</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>4172158694.458539</v>
+        <v>4428107787.047346</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>4189953897.686737</v>
+        <v>4446994671.21394</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>4207980096.138903</v>
+        <v>4466126721.450407</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>4226242155.303815</v>
+        <v>4485509101.728287</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>4244745027.923572</v>
+        <v>4505147068.625163</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>4263493752.088624</v>
+        <v>4525045969.302828</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>4282493449.228741</v>
+        <v>4545211239.374995</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>4301749322.006275</v>
+        <v>4565648400.671339</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>4321266652.118762</v>
+        <v>4586363058.905278</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>4341050798.018093</v>
+        <v>4607360901.253235</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>4361107192.553887</v>
+        <v>4628647693.853437</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>4381441340.549134</v>
+        <v>4650229279.2328</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>4402058816.316315</v>
+        <v>4672111573.67073</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>4422965261.122678</v>
+        <v>4694300564.508852</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>4444166380.613498</v>
+        <v>4716802307.41621</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>4465667942.202361</v>
+        <v>4739622923.619473</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>4487475772.437839</v>
+        <v>4762768597.108015</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>4509595754.355922</v>
+        <v>4786245571.823984</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>4532033824.827915</v>
+        <v>4810060148.847458</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>4554795971.913379</v>
+        <v>4834218683.587031</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>4577888232.22804</v>
+        <v>4858727582.9862</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>4601316688.336361</v>
+        <v>4883593302.756055</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>4625087466.17879</v>
+        <v>4908822344.644618</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>4649206732.543327</v>
+        <v>4934421253.753356</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>4673680692.591358</v>
+        <v>4960396615.911201</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>4698515587.447382</v>
+        <v>4986755055.116431</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>4723717691.862206</v>
+        <v>5013503231.0565</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>4749293311.959151</v>
+        <v>5040647836.715978</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>4775248783.072476</v>
+        <v>5068195596.082383</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>4801590467.687141</v>
+        <v>5096153261.959538</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>4828324753.488797</v>
+        <v>5124527613.89795</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>4855458051.532601</v>
+        <v>5153325456.251269</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>4882996794.539216</v>
+        <v>5182553616.367774</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>4910947435.326058</v>
+        <v>5212218942.925356</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>4939316445.381492</v>
+        <v>5242328304.418276</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>4968110313.58942</v>
+        <v>5272888587.803496</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>4997335545.11131</v>
+        <v>5303906697.3141</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>5026998660.432268</v>
+        <v>5335389553.446892</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>5057106194.577503</v>
+        <v>5367344092.130763</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>5087664696.505097</v>
+        <v>5399777264.082203</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>5118680728.680451</v>
+        <v>5432696034.353678</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>5150160866.837601</v>
+        <v>5466107382.080246</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>5182111699.931894</v>
+        <v>5500018300.429399</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>5214539830.288357</v>
+        <v>5534435796.758475</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>5247451873.949434</v>
+        <v>5569366892.983752</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>5280854461.225458</v>
+        <v>5604818626.164694</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>5314754237.450715</v>
+        <v>5640798049.306387</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>5349157863.947616</v>
+        <v>5677312232.382868</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>5384072019.20097</v>
+        <v>5714368263.58343</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>5419503400.243937</v>
+        <v>5751973250.78361</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>5455458724.25693</v>
+        <v>5790134323.242142</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>5491944730.380118</v>
+        <v>5828858633.524716</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>5528968181.740089</v>
+        <v>5868153359.654906</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>5566535867.690477</v>
+        <v>5908025707.492311</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>5604654606.266378</v>
+        <v>5948482913.337459</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>5643331246.8516</v>
+        <v>5989532246.762797</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>5682572673.05796</v>
+        <v>6031181013.668526</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>5722385805.814915</v>
+        <v>6073436559.561829</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>5762777606.666961</v>
+        <v>6116306273.056518</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>5803755081.279909</v>
+        <v>6159797589.594437</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>5845325283.150725</v>
+        <v>6203917995.382878</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>5887495317.519409</v>
+        <v>6248675031.546451</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5930272345.480213</v>
+        <v>6294076298.490483</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5973663588.289154</v>
+        <v>6340129460.472829</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>6017676331.864805</v>
+        <v>6386842250.380722</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>6062317931.478989</v>
+        <v>6434222474.709283</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>6107595816.633965</v>
+        <v>6482278018.737871</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>6153517496.122553</v>
+        <v>6531016851.900613</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>6200090563.267397</v>
+        <v>6580447033.347131</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>6247322701.33581</v>
+        <v>6630576717.68954</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>6295221689.126187</v>
+        <v>6681414160.931569</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>6343795406.722173</v>
+        <v>6732967726.575726</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>6393051841.410686</v>
+        <v>6785245891.904406</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>6442999093.759843</v>
+        <v>6838257254.430646</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>6493645383.852851</v>
+        <v>6892010538.51444</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>6544999057.67403</v>
+        <v>6946514602.14056</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>6597068593.642921</v>
+        <v>7001778443.85349</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>6649862609.292815</v>
+        <v>7057811209.845661</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>6703389868.089783</v>
+        <v>7114622201.19481</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>6757659286.388597</v>
+        <v>7172220881.246622</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>6812679940.521634</v>
+        <v>7230616883.138527</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>6868461074.017534</v>
+        <v>7289820017.461198</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>6925012104.945771</v>
+        <v>7349840280.053676</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>6982342633.383876</v>
+        <v>7410687859.928695</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>7040462449.003904</v>
+        <v>7472373147.324548</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>7099381538.774922</v>
+        <v>7534906741.880129</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>7159110094.778296</v>
+        <v>7598299460.929601</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>7219658522.132575</v>
+        <v>7662562347.913517</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>7281037447.02516</v>
+        <v>7727706680.903162</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>7343257724.847499</v>
+        <v>7793743981.234832</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>7406330448.431006</v>
+        <v>7860686022.251003</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>7470266956.380842</v>
+        <v>7928544838.145355</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>7535078841.504549</v>
+        <v>7997332732.908488</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>7600777959.332764</v>
+        <v>8067062289.371349</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>7667376436.729094</v>
+        <v>8137746378.343296</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>7734886680.586263</v>
+        <v>8209398167.841726</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>7803321386.605504</v>
+        <v>8282031132.410068</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>7872693548.156265</v>
+        <v>8355659062.520978</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>7943016465.212945</v>
+        <v>8430296074.061352</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>8014303753.365559</v>
+        <v>8505956617.895734</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>8086569352.900759</v>
+        <v>8582655489.504446</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>8159827537.949678</v>
+        <v>8660407838.692636</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>8234092925.698798</v>
+        <v>8739229179.366175</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>8309380485.659664</v>
+        <v>8819135399.370049</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>8385705548.993122</v>
+        <v>8900142770.384651</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>8463083817.883509</v>
+        <v>8982267957.87496</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>8541531374.957444</v>
+        <v>9065528031.087261</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>8621064692.74209</v>
+        <v>9149940473.087532</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>8701700643.156788</v>
+        <v>9235523190.83543</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>8783456507.031641</v>
+        <v>9322294525.286789</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>8866349983.646299</v>
+        <v>9410273261.51759</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>8950399200.281305</v>
+        <v>9499478638.861223</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>9035622721.773922</v>
+        <v>9589930361.05057</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>9122039560.069609</v>
+        <v>9681648606.355431</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>9209669183.759783</v>
+        <v>9774654037.705362</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>9298531527.595398</v>
+        <v>9868967812.786932</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>9388647001.965439</v>
+        <v>9964611594.103653</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>9480036502.328255</v>
+        <v>10061607558.98591</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>9572721418.582893</v>
+        <v>10159978409.53724</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>9666723644.366776</v>
+        <v>10259747382.50231</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>9762065586.26453</v>
+        <v>10360938259.04074</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>9858770172.912481</v>
+        <v>10463575374.39009</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>9956860863.981424</v>
+        <v>10567683627.39978</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>10056361659.01978</v>
+        <v>10673288489.91662</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>10157297106.13751</v>
+        <v>10780416016.00157</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>10259692310.51024</v>
+        <v>10889092850.95547</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>10363572942.68165</v>
+        <v>10999346240.13087</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>10468965246.64066</v>
+        <v>11111204037.50458</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>10575896047.64882</v>
+        <v>11224694713.9854</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>10684392759.79162</v>
+        <v>11339847365.42858</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>10794483393.2261</v>
+        <v>11456691720.32804</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>10906196561.09551</v>
+        <v>11575258147.1553</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>11019561486.08032</v>
+        <v>11695577661.31234</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>11134608006.55319</v>
+        <v>11817681931.66412</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>11251366582.30386</v>
+        <v>11941603286.61466</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>11369868299.79832</v>
+        <v>12067374719.68902</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>11490144876.93513</v>
+        <v>12195029894.58119</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>11612228667.25955</v>
+        <v>12324603149.62679</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>11736152663.59496</v>
+        <v>12456129501.65737</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>11861950501.04905</v>
+        <v>12589644649.19096</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>11989656459.35074</v>
+        <v>12725184974.9123</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>12119305464.4717</v>
+        <v>12862787547.39394</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>12250933089.48516</v>
+        <v>13002490122.0076</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>12384575554.61243</v>
+        <v>13144331140.9737</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>12520269726.4066</v>
+        <v>13288349732.49488</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>12658053116.02051</v>
+        <v>13434585708.91769</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>12797963876.50491</v>
+        <v>13583079563.86514</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>12940040799.0814</v>
+        <v>13733872468.28086</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>13084323308.33277</v>
+        <v>13887006265.32442</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>13230851456.25229</v>
+        <v>14042523464.05557</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>13379665915.09206</v>
+        <v>14200467231.84391</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>13530807968.94978</v>
+        <v>14360881385.43941</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>13684319504.03131</v>
+        <v>14523810380.63774</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>13840242997.52624</v>
+        <v>14689299300.47332</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>13998621505.03262</v>
+        <v>14857393841.87259</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>14159498646.46622</v>
+        <v>15028140300.69884</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>14322918590.38894</v>
+        <v>15201585555.11934</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>14488926036.69168</v>
+        <v>15377777047.22566</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>14657566197.56536</v>
+        <v>15556762762.83747</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>14828884776.69526</v>
+        <v>15738591209.42044</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15002927946.61322</v>
+        <v>15923311392.04907</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>15179742324.1434</v>
+        <v>16110972787.34627</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>15359374943.87786</v>
+        <v>16301625315.33143</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>15541873229.61931</v>
+        <v>16495319309.11165</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>15727284963.73023</v>
+        <v>16692105482.35022</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>15915658254.3286</v>
+        <v>16892034894.45007</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>16107041500.27325</v>
+        <v>17095158913.39104</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>16301483353.88409</v>
+        <v>17301529176.16308</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>16499032681.3449</v>
+        <v>17511197546.73993</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>16699738520.74013</v>
+        <v>17724216071.54157</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>16903650037.68057</v>
+        <v>17940636932.33766</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>17110816478.47643</v>
+        <v>18160512396.54795</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>17321287120.82149</v>
+        <v>18383894764.90102</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>17535111221.95622</v>
+        <v>18610836316.41742</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>17752337964.28341</v>
+        <v>18841389250.68897</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>17973016398.41603</v>
+        <v>19075605627.43275</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>18197195383.64231</v>
+        <v>19313537303.30388</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>18424923525.80107</v>
+        <v>19555235865.95981</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>18656249112.56633</v>
+        <v>19800752565.37466</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>18891220046.14901</v>
+        <v>20050138242.41261</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>19129883773.43096</v>
+        <v>20303443254.6756</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>19372287213.5555</v>
+        <v>20560717399.65195</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>19618476683.00775</v>
+        <v>20822009835.20061</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>19868497818.22786</v>
+        <v>21087368997.41684</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>20122395495.80955</v>
+        <v>21356842515.9352</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>20380213750.34763</v>
+        <v>21630477126.73735</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>20641995690.00838</v>
+        <v>21908318582.54288</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>20907783409.90826</v>
+        <v>22190411560.87409</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>21177617903.39749</v>
+        <v>22476799569.89701</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>21451538971.35727</v>
+        <v>22767524852.15439</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>21729585129.63137</v>
+        <v>23062628286.31845</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>22011793514.72493</v>
+        <v>23362149287.10461</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>22298199787.91608</v>
+        <v>23666125703.50061</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>22588838037.93796</v>
+        <v>23974593715.47846</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>22883740682.4025</v>
+        <v>24287587729.37075</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>23182938368.14836</v>
+        <v>24605140272.10539</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>23486459870.70943</v>
+        <v>24927281884.50672</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>23794331993.11176</v>
+        <v>25254041013.88385</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>24106579464.2192</v>
+        <v>25585443906.14037</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>24423224836.86036</v>
+        <v>25921514497.65147</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>24744288385.97998</v>
+        <v>26262274307.16732</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>25069788007.07013</v>
+        <v>26607742328.01338</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>25399739115.14596</v>
+        <v>26957934920.8685</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>25734154544.54148</v>
+        <v>27312865707.41359</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>26073044449.80921</v>
+        <v>27672545465.15169</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>26416416208.01673</v>
+        <v>28036982023.71077</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>26764274322.73956</v>
+        <v>28406180162.94687</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>27116620330.05738</v>
+        <v>28780141513.17341</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>27473452706.86471</v>
+        <v>29158864457.84705</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>27834766781.81248</v>
+        <v>29542344039.04591</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>28200554649.19918</v>
+        <v>29930571866.07795</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>28570805086.13211</v>
+        <v>30323536027.56057</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>28973451926.84405</v>
+        <v>30727541901.03885</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>29380853509.04616</v>
+        <v>31136322868.07426</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>29792987865.09305</v>
+        <v>31549855892.0347</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>30209829226.18242</v>
+        <v>31968114062.04779</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>30631347957.6501</v>
+        <v>32391066526.81691</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>31057510499.74293</v>
+        <v>32818678433.97385</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>31488279314.1769</v>
+        <v>33250910875.27987</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>31923612836.77509</v>
+        <v>33687720837.97521</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>32363465436.46618</v>
+        <v>34129061162.56247</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>32807787380.9108</v>
+        <v>34574880507.29583</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>33256524809.0027</v>
+        <v>35025123319.62912</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>33709619710.47581</v>
+        <v>35479729814.85819</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>34167009912.82566</v>
+        <v>35938635962.1714</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>34628629075.73206</v>
+        <v>36401773478.30099</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>35094406693.14644</v>
+        <v>36869069828.94337</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>35461499650.43664</v>
+        <v>37275028334.68344</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>35831656938.95161</v>
+        <v>37684389096.31198</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>36204805992.02916</v>
+        <v>38097073500.31098</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>36580870754.21713</v>
+        <v>38512999143.2804</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>36959771710.29482</v>
+        <v>38932079865.58939</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>37341425920.72134</v>
+        <v>39354225792.19034</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>37725747063.48267</v>
+        <v>39779343380.57024</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>38112645482.28392</v>
+        <v>40207335475.78631</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>38502028241.0099</v>
+        <v>40638101372.50647</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>38893799184.35155</v>
+        <v>41071536883.94804</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>39399502901.3003</v>
+        <v>41676457688.82803</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>39908206057.07384</v>
+        <v>42285059637.14362</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>40419787863.94534</v>
+        <v>42897205279.85439</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>40934124238.42123</v>
+        <v>43512753456.39708</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>41451087920.05072</v>
+        <v>44131559440.53197</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>41970548596.7249</v>
+        <v>44753475094.04852</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>42492373036.14434</v>
+        <v>45378349027.94843</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>43016425223.1087</v>
+        <v>46006026770.69191</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>43542566502.25961</v>
+        <v>46636350943.0642</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>44070655725.88763</v>
+        <v>47269161439.19158</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>44405751550.43369</v>
+        <v>47556062773.67266</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>44741448895.42088</v>
+        <v>47843232757.74998</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>45077628911.89102</v>
+        <v>48130555809.88318</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>45414170918.22112</v>
+        <v>48417914444.02275</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>45750952498.602</v>
+        <v>48705189351.515</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>46087849602.85255</v>
+        <v>48992259483.94285</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>46424736647.28074</v>
+        <v>49279002136.62842</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>46761486616.30766</v>
+        <v>49565293032.52591</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>47097971164.58009</v>
+        <v>49851006406.24541</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>47434060719.30757</v>
+        <v>50136015087.95485</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>47474834181.48795</v>
+        <v>50101465282.65191</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>47513828767.20265</v>
+        <v>50064740046.95708</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>47550949195.97095</v>
+        <v>50025748891.9991</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>47586098361.0362</v>
+        <v>49984399167.04574</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>47619177324.96401</v>
+        <v>49940596026.6674</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>47650085315.36562</v>
+        <v>49894242397.86402</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>47678719720.95927</v>
+        <v>49845238947.41873</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>47704976088.22324</v>
+        <v>49793484049.78825</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>47728748118.93832</v>
+        <v>49738873755.88887</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>47749927668.96181</v>
+        <v>49681301763.19272</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>47821101137.59271</v>
+        <v>49656278716.16685</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>47889599767.98525</v>
+        <v>49628168463.94263</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>47955305960.14581</v>
+        <v>49596854828.88768</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>48018100626.9912</v>
+        <v>49562219415.52235</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>48077863220.30541</v>
+        <v>49524141605.08424</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>48134471760.37125</v>
+        <v>49482498554.77111</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>48187802869.95301</v>
+        <v>49437165202.53845</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>48237731813.37258</v>
+        <v>49388014278.41258</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>48284132541.48437</v>
+        <v>49334916323.37386</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>48326877743.42292</v>
+        <v>49277739716.95838</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>48365838906.06332</v>
+        <v>49216350714.82215</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>48400886382.20004</v>
+        <v>49150613497.6116</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>48431889468.51743</v>
+        <v>49080390232.58072</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>48458716494.48653</v>
+        <v>49005541149.49397</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>48481234923.38575</v>
+        <v>48925924632.44762</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>48499311466.69865</v>
+        <v>48841397329.33583</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>48512812213.19416</v>
+        <v>48751814280.77097</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>48521602774.04052</v>
+        <v>48657029070.34674</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>48525548445.34084</v>
+        <v>48556893998.20014</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>48524514389.50606</v>
+        <v>48451260279.88343</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>48518365836.89757</v>
+        <v>48339978272.59669</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>48506968309.17447</v>
+        <v>48222897730.85397</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>48490187865.76776</v>
+        <v>48099868093.65648</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>48467891374.87489</v>
+        <v>47970738805.22164</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>48439946810.31758</v>
+        <v>47835359671.26685</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>48406223575.53546</v>
+        <v>47693581252.76271</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>48366592855.8933</v>
+        <v>47545255298.95647</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>48320928000.35812</v>
+        <v>47390235221.30979</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>48269104933.45351</v>
+        <v>47228376609.80378</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>48211002598.22118</v>
+        <v>47059537792.82487</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>48146503430.70638</v>
+        <v>46883580441.56445</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>48075493866.24493</v>
+        <v>46700370219.5335</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>47997864877.54884</v>
+        <v>46509777477.41701</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>47913512544.27837</v>
+        <v>46311677993.06231</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>47822338653.44263</v>
+        <v>46105953755.91915</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>47724251329.58946</v>
+        <v>45892493794.72253</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>47619165693.33534</v>
+        <v>45671195046.63494</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>47507004546.33966</v>
+        <v>45441963265.44681</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>47387699080.35831</v>
+        <v>45204713965.77607</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>47261189607.51352</v>
+        <v>44959373399.51317</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/energy_use_vector_SFH.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_SFH.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>3074959733.238696</v>
+        <v>5437149526.197998</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>3078550112.636803</v>
+        <v>5443498041.735379</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>3082188203.972132</v>
+        <v>5449930921.609003</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>3085874616.636543</v>
+        <v>5456449243.346686</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>3089609966.143238</v>
+        <v>5463054095.300022</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>3093394874.073325</v>
+        <v>5469746576.549882</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>3097229968.014468</v>
+        <v>5476527796.797942</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>3101115881.491288</v>
+        <v>5483398876.24362</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>3105053253.887258</v>
+        <v>5490360945.445955</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>3109042730.357722</v>
+        <v>5497415145.16984</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>3113084961.733812</v>
+        <v>5504562626.216084</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>3117180604.416943</v>
+        <v>5511804549.234897</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>3121330320.263617</v>
+        <v>5519142084.522174</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>3125534776.460312</v>
+        <v>5526576411.798292</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>3129794645.388175</v>
+        <v>5534108719.968843</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>3134110604.477326</v>
+        <v>5541740206.867033</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>3138483336.05059</v>
+        <v>5549472078.977348</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>3142913527.156439</v>
+        <v>5557305551.140174</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>3147401869.391041</v>
+        <v>5565241846.237141</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>3151949058.70928</v>
+        <v>5573282194.856976</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>3156555795.224657</v>
+        <v>5581427834.941673</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>3161222782.998048</v>
+        <v>5589680011.412987</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>3165950729.815269</v>
+        <v>5598039975.77911</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>3170740346.953516</v>
+        <v>5606508985.721709</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>3175592348.93674</v>
+        <v>5615088304.663364</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>3180507453.280056</v>
+        <v>5623779201.315638</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3185486380.223395</v>
+        <v>5632582949.208113</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3190529852.454601</v>
+        <v>5641500826.198787</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3195638594.822256</v>
+        <v>5650534113.966268</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3200813334.038568</v>
+        <v>5659684097.484438</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3206054798.372742</v>
+        <v>5668952064.480263</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3211363717.335282</v>
+        <v>5678339304.875566</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3216740821.35376</v>
+        <v>5687847110.213747</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3222186841.440669</v>
+        <v>5697476773.072465</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3227702508.854035</v>
+        <v>5707229586.463505</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3233288554.751517</v>
+        <v>5717106843.221213</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3238945709.838863</v>
+        <v>5727109835.380849</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>3244674704.013605</v>
+        <v>5737239853.548598</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>3250476266.005002</v>
+        <v>5747498186.264877</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>3256351123.011276</v>
+        <v>5757886119.362949</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>3262300000.335347</v>
+        <v>5768404935.32478</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>3268323621.020255</v>
+        <v>5779055912.636422</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>3274422705.485649</v>
+        <v>5789840325.145247</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>3280597971.166729</v>
+        <v>5800759441.421493</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>3286850132.157132</v>
+        <v>5811814524.12688</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>3293179898.857398</v>
+        <v>5823006829.392952</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>3299587977.63063</v>
+        <v>5834337606.212276</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>3306075070.467156</v>
+        <v>5845808095.84544</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>3312641874.659976</v>
+        <v>5857419531.247241</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>3319289082.492976</v>
+        <v>5869173136.515323</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>3326017380.943849</v>
+        <v>5881070126.364928</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>3332827451.403831</v>
+        <v>5893111705.633304</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>3339719969.416367</v>
+        <v>5905299068.817635</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>3346695604.436933</v>
+        <v>5917633399.650331</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>3353755019.616284</v>
+        <v>5930115870.715804</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>3360898871.609408</v>
+        <v>5942747643.112622</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>3368127810.412672</v>
+        <v>5955529866.165568</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>3375442479.231435</v>
+        <v>5968463677.191555</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>3382843514.380723</v>
+        <v>5981550201.323997</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>3390331545.221363</v>
+        <v>5994790551.399892</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>3397907194.134158</v>
+        <v>6008185827.914122</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>3405571076.534574</v>
+        <v>6021737119.045453</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>3413323800.930492</v>
+        <v>6035445500.758676</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>3421165969.025608</v>
+        <v>6049312036.987361</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>3429098175.870883</v>
+        <v>6063337779.901751</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>3437121010.06668</v>
+        <v>6077523770.26608</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>3445235054.017886</v>
+        <v>6091871037.889776</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>3453440884.244578</v>
+        <v>6106380602.176701</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>3461739071.750505</v>
+        <v>6121053472.776741</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>3470130182.451673</v>
+        <v>6135890650.343639</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>3478614777.667273</v>
+        <v>6150893127.403037</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>3487193414.675051</v>
+        <v>6166061889.334475</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>3495866647.333095</v>
+        <v>6181397915.470873</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>3504635026.769984</v>
+        <v>6196902180.318782</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>3513499102.144998</v>
+        <v>6212575654.902676</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>3522459421.480034</v>
+        <v>6228419308.235914</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>3531516532.564705</v>
+        <v>6244434108.921079</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>3540670983.935827</v>
+        <v>6260621026.882013</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>3549923325.932536</v>
+        <v>6276981035.229385</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>3559274111.827802</v>
+        <v>6293515112.261505</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>3568723899.037169</v>
+        <v>6310224243.601564</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>3578273250.405134</v>
+        <v>6327109424.472258</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>3587922735.569496</v>
+        <v>6344171662.108196</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>3597672932.40365</v>
+        <v>6361411978.306199</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>3607524428.536658</v>
+        <v>6378831412.113058</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>3617477822.95055</v>
+        <v>6396431022.649934</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>3627533727.654232</v>
+        <v>6414211892.072097</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>3637692769.43288</v>
+        <v>6432175128.662256</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>3647955591.671582</v>
+        <v>6450321870.05514</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>3658322856.251663</v>
+        <v>6468653286.590531</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>3668795245.517809</v>
+        <v>6487170584.791578</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>3679373464.313845</v>
+        <v>6505875010.964436</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>3690058242.084712</v>
+        <v>6524767854.915019</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>3700850335.0419</v>
+        <v>6543850453.777888</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>3711750528.389315</v>
+        <v>6563124195.952048</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>3722759638.606167</v>
+        <v>6582590525.137565</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>3733878515.783368</v>
+        <v>6602250944.466759</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>3745108046.009372</v>
+        <v>6622107020.722895</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>3756449153.801409</v>
+        <v>6642160388.639065</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>3767902804.577498</v>
+        <v>6662412755.269194</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>3779470007.164538</v>
+        <v>6682865904.422893</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>3791151816.337503</v>
+        <v>6703521701.155239</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>3802949335.384408</v>
+        <v>6724382096.302156</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>3814863718.691598</v>
+        <v>6745449131.051712</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>3826896174.343611</v>
+        <v>6766724941.541242</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>3839047966.731711</v>
+        <v>6788211763.469744</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>3851320419.164938</v>
+        <v>6809911936.714725</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>3863714916.477416</v>
+        <v>6831827909.942448</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>3876232907.625407</v>
+        <v>6853962245.2001</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>3888875908.267622</v>
+        <v>6876317622.478205</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>3901645503.321958</v>
+        <v>6898896844.23155</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>3914543349.492005</v>
+        <v>6921702839.846522</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>3927571177.756346</v>
+        <v>6944738670.042656</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>3940730795.813829</v>
+        <v>6968007531.196437</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>3954024090.47784</v>
+        <v>6991512759.574804</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>3967453030.012652</v>
+        <v>7015257835.466293</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>3981019666.40502</v>
+        <v>7039246387.197721</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>3994726137.564136</v>
+        <v>7063482195.0241</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>4008574669.443239</v>
+        <v>7087969194.880101</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>4022567578.076274</v>
+        <v>7112711481.981241</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>4036707271.523052</v>
+        <v>7137713314.263363</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>4050996251.716678</v>
+        <v>7162979115.649261</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>4065437116.207118</v>
+        <v>7188513479.131602</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>4080032559.794962</v>
+        <v>7214321169.661814</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>4094785376.049818</v>
+        <v>7240407126.834892</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>4109698458.707985</v>
+        <v>7266776467.360728</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>4124774802.944256</v>
+        <v>7293434487.312972</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>4140017506.513274</v>
+        <v>7320386664.147166</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>4155429770.755984</v>
+        <v>7347638658.48031</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>4171014901.467182</v>
+        <v>7375196315.624939</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>4186776309.620663</v>
+        <v>7403065666.871258</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>4202717511.948724</v>
+        <v>7431252930.511861</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>4218842131.373298</v>
+        <v>7459764512.604057</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>4235153897.286518</v>
+        <v>7488607007.465977</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>4251656645.678842</v>
+        <v>7517787197.903063</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>4268354319.113465</v>
+        <v>7547312055.162911</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>4285250966.546245</v>
+        <v>7577188738.616824</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>4302350742.990825</v>
+        <v>7607424595.167643</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>4319657909.029161</v>
+        <v>7638027158.384311</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>4337176830.168283</v>
+        <v>7669004147.364506</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>4354911976.044555</v>
+        <v>7700363465.327563</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>4372867919.477245</v>
+        <v>7732113197.941025</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>4391049335.373839</v>
+        <v>7764261611.38501</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>4409460999.489956</v>
+        <v>7796817150.159502</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>4428107787.047346</v>
+        <v>7829788434.640687</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>4446994671.21394</v>
+        <v>7863184258.39334</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>4466126721.450407</v>
+        <v>7897013585.247272</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>4485509101.728287</v>
+        <v>7931285546.146569</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>4505147068.625163</v>
+        <v>7966009435.781498</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>4525045969.302828</v>
+        <v>8001194709.013507</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>4545211239.374995</v>
+        <v>8036850977.104883</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>4565648400.671339</v>
+        <v>8072988003.765129</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>4586363058.905278</v>
+        <v>8109615701.027164</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>4607360901.253235</v>
+        <v>8146744124.966926</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>4628647693.853437</v>
+        <v>8184383471.280752</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>4650229279.2328</v>
+        <v>8222544070.735638</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>4672111573.67073</v>
+        <v>8261236384.507825</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>4694300564.508852</v>
+        <v>8300470999.425931</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>4716802307.41621</v>
+        <v>8340258623.135243</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>4739622923.619473</v>
+        <v>8380610079.200139</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>4762768597.108015</v>
+        <v>8421536302.162159</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>4786245571.823984</v>
+        <v>8463048332.571436</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>4810060148.847458</v>
+        <v>8505157312.009484</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>4834218683.587031</v>
+        <v>8547874478.121625</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>4858727582.9862</v>
+        <v>8591211159.677279</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>4883593302.756055</v>
+        <v>8635178771.676819</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>4908822344.644618</v>
+        <v>8679788810.523199</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>4934421253.753356</v>
+        <v>8725052849.27702</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>4960396615.911201</v>
+        <v>8770982533.013277</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>4986755055.116431</v>
+        <v>8817589574.298031</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>5013503231.0565</v>
+        <v>8864885748.803064</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>5040647836.715978</v>
+        <v>8912882891.076147</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>5068195596.082383</v>
+        <v>8961592890.484528</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>5096153261.959538</v>
+        <v>9011027687.348518</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>5124527613.89795</v>
+        <v>9061199269.281919</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>5153325456.251269</v>
+        <v>9112119667.755548</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>5182553616.367774</v>
+        <v>9163800954.89933</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>5212218942.925356</v>
+        <v>9216255240.558287</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>5242328304.418276</v>
+        <v>9269494669.616735</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>5272888587.803496</v>
+        <v>9323531419.604811</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>5303906697.3141</v>
+        <v>9378377698.600317</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>5335389553.446892</v>
+        <v>9434045743.43857</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>5367344092.130763</v>
+        <v>9490547818.241966</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>5399777264.082203</v>
+        <v>9547896213.28034</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>5432696034.353678</v>
+        <v>9606103244.172436</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>5466107382.080246</v>
+        <v>9665181251.437857</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>5500018300.429399</v>
+        <v>9725142600.408373</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>5534435796.758475</v>
+        <v>9785999681.506298</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>5569366892.983752</v>
+        <v>9847764910.897062</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>5604818626.164694</v>
+        <v>9910450731.522312</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>5640798049.306387</v>
+        <v>9974069614.518766</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>5677312232.382868</v>
+        <v>10038634061.02769</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>5714368263.58343</v>
+        <v>10104156604.3986</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>5751973250.78361</v>
+        <v>10170649812.79024</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>5790134323.242142</v>
+        <v>10238126292.17118</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>5828858633.524716</v>
+        <v>10306598689.72141</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>5868153359.654906</v>
+        <v>10376079697.63555</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>5908025707.492311</v>
+        <v>10446582057.32798</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>5948482913.337459</v>
+        <v>10518118564.03877</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>5989532246.762797</v>
+        <v>10590702071.83947</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>6031181013.668526</v>
+        <v>10664345499.03638</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>6073436559.561829</v>
+        <v>10739061833.96902</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>6116306273.056518</v>
+        <v>10814864141.19805</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>6159797589.594437</v>
+        <v>10891765568.08562</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>6203917995.382878</v>
+        <v>10969779351.75738</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>6248675031.546451</v>
+        <v>11048918826.44393</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>6294076298.490483</v>
+        <v>11129197431.19612</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>6340129460.472829</v>
+        <v>11210628717.96893</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>6386842250.380722</v>
+        <v>11293226360.068</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>6434222474.709283</v>
+        <v>11377004160.95252</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>6482278018.737871</v>
+        <v>11461976063.38814</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>6531016851.900613</v>
+        <v>11548156158.94312</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>6580447033.347131</v>
+        <v>11635558697.82085</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>6630576717.68954</v>
+        <v>11724198099.02163</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>6681414160.931569</v>
+        <v>11814088960.82663</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>6732967726.575726</v>
+        <v>11905246071.59657</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>6785245891.904406</v>
+        <v>11997684420.87796</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>6838257254.430646</v>
+        <v>12091419210.80935</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>6892010538.51444</v>
+        <v>12186465867.82036</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>6946514602.14056</v>
+        <v>12282840054.61615</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>7001778443.85349</v>
+        <v>12380557682.43979</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>7057811209.845661</v>
+        <v>12479634923.60581</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>7114622201.19481</v>
+        <v>12580088224.29719</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>7172220881.246622</v>
+        <v>12681934317.61935</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>7230616883.138527</v>
+        <v>12785190236.90387</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>7289820017.461198</v>
+        <v>12889873329.25542</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>7349840280.053676</v>
+        <v>12996001269.33523</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>7410687859.928695</v>
+        <v>13103592073.37457</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>7472373147.324548</v>
+        <v>13212664113.41215</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>7534906741.880129</v>
+        <v>13323236131.74919</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>7598299460.929601</v>
+        <v>13435327255.61609</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>7662562347.913517</v>
+        <v>13548957012.04504</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>7727706680.903162</v>
+        <v>13664145342.94266</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>7793743981.234832</v>
+        <v>13780912620.35723</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>7860686022.251003</v>
+        <v>13899279661.93486</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>7928544838.145355</v>
+        <v>14019267746.55923</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>7997332732.908488</v>
+        <v>14140898630.16939</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>8067062289.371349</v>
+        <v>14264194561.7505</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>8137746378.343296</v>
+        <v>14389178299.49161</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>8209398167.841726</v>
+        <v>14515873127.10559</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>8282031132.410068</v>
+        <v>14644302870.30524</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>8355659062.520978</v>
+        <v>14774491913.42999</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>8430296074.061352</v>
+        <v>14906465216.21732</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>8505956617.895734</v>
+        <v>15040248330.71285</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>8582655489.504446</v>
+        <v>15175867418.31241</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>8660407838.692636</v>
+        <v>15313349266.92969</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>8739229179.366175</v>
+        <v>15452721308.28193</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>8819135399.370049</v>
+        <v>15594011635.28623</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>8900142770.384651</v>
+        <v>15737249019.55814</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>8982267957.87496</v>
+        <v>15882462929.0039</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>9065528031.087261</v>
+        <v>16029683545.49654</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>9149940473.087532</v>
+        <v>16178941782.62592</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>9235523190.83543</v>
+        <v>16330269303.5114</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>9322294525.286789</v>
+        <v>16483698538.66527</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>9410273261.51759</v>
+        <v>16639262703.89386</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>9499478638.861223</v>
+        <v>16796995818.22229</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>9589930361.05057</v>
+        <v>16956932721.82773</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>9681648606.355431</v>
+        <v>17119109093.96441</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>9774654037.705362</v>
+        <v>17283561470.86286</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>9868967812.786932</v>
+        <v>17450327263.58386</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>9964611594.103653</v>
+        <v>17619444775.80646</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>10061607558.98591</v>
+        <v>17790953221.52755</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>10159978409.53724</v>
+        <v>17964892742.64885</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>10259747382.50231</v>
+        <v>18141304426.42558</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>10360938259.04074</v>
+        <v>18320230322.74845</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>10463575374.39009</v>
+        <v>18501713461.22985</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>10567683627.39978</v>
+        <v>18685797868.06165</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>10673288489.91662</v>
+        <v>18872528582.61084</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>10780416016.00157</v>
+        <v>19061951673.71651</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>10889092850.95547</v>
+        <v>19254114255.64926</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>10999346240.13087</v>
+        <v>19449064503.69212</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>11111204037.50458</v>
+        <v>19646851669.29881</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>11224694713.9854</v>
+        <v>19847526094.7833</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>11339847365.42858</v>
+        <v>20051139227.49097</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>11456691720.32804</v>
+        <v>20257743633.40019</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>11575258147.1553</v>
+        <v>20467393010.09881</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>11695577661.31234</v>
+        <v>20680142199.07836</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>11817681931.66412</v>
+        <v>20896047197.28484</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>11941603286.61466</v>
+        <v>21115165167.86245</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>12067374719.68902</v>
+        <v>21337554450.02366</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>12195029894.58119</v>
+        <v>21563274567.97478</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>12324603149.62679</v>
+        <v>21792386238.82491</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>12456129501.65737</v>
+        <v>22024951379.40072</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>12589644649.19096</v>
+        <v>22261033111.88829</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>12725184974.9123</v>
+        <v>22500695768.21853</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>12862787547.39394</v>
+        <v>22744004893.11045</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>13002490122.0076</v>
+        <v>22991027245.68261</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>13144331140.9737</v>
+        <v>23241830799.54076</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>13288349732.49488</v>
+        <v>23496484741.24564</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>13434585708.91769</v>
+        <v>23755059467.0626</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>13583079563.86514</v>
+        <v>24017626577.89124</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>13733872468.28086</v>
+        <v>24284258872.27071</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>13887006265.32442</v>
+        <v>24555030337.35373</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>14042523464.05557</v>
+        <v>24830016137.73886</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>14200467231.84391</v>
+        <v>25109292602.04943</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>14360881385.43941</v>
+        <v>25392937207.14437</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>14523810380.63774</v>
+        <v>25681028559.84427</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>14689299300.47332</v>
+        <v>25973646376.0546</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>14857393841.87259</v>
+        <v>26270871457.16579</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>15028140300.69884</v>
+        <v>26572785663.60954</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>15201585555.11934</v>
+        <v>26879471885.44841</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>15377777047.22566</v>
+        <v>27016515340.73079</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>15556762762.83747</v>
+        <v>27155995978.1709</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>15738591209.42044</v>
+        <v>27297960230.19889</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15923311392.04907</v>
+        <v>27442454999.40352</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>16110972787.34627</v>
+        <v>27589527629.94447</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>16301625315.33143</v>
+        <v>27739225877.01992</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>16495319309.11165</v>
+        <v>27891597874.33076</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>16692105482.35022</v>
+        <v>28046692099.48552</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>16892034894.45007</v>
+        <v>28204557337.2909</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>17095158913.39104</v>
+        <v>28365242640.87685</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>17301529176.16308</v>
+        <v>28528797290.60604</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>17511197546.73993</v>
+        <v>28695270750.72174</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>17724216071.54157</v>
+        <v>28864712623.6915</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>17940636932.33766</v>
+        <v>29037172602.20724</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>18160512396.54795</v>
+        <v>29212700418.80791</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>18383894764.90102</v>
+        <v>29391345793.09446</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>18610836316.41742</v>
+        <v>29573158376.51271</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>18841389250.68897</v>
+        <v>29758187694.68545</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>19075605627.43275</v>
+        <v>29946483087.28102</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>19313537303.30388</v>
+        <v>30138093645.41268</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>19555235865.95981</v>
+        <v>30333068146.56935</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>19800752565.37466</v>
+        <v>30531454987.08714</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>20050138242.41261</v>
+        <v>30733302112.17819</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>20303443254.6756</v>
+        <v>30938656943.54234</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>20560717399.65195</v>
+        <v>31147566304.59624</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>20822009835.20061</v>
+        <v>31360076343.36364</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>21087368997.41684</v>
+        <v>31576232453.08115</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>21356842515.9352</v>
+        <v>31796079190.58333</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>21630477126.73735</v>
+        <v>32019660192.54251</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>21908318582.54288</v>
+        <v>32247018089.64959</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>22190411560.87409</v>
+        <v>32478194418.83279</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>22476799569.89701</v>
+        <v>32713229533.62488</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>22767524852.15439</v>
+        <v>32952162512.79955</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>23062628286.31845</v>
+        <v>33195031067.411</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>23362149287.10461</v>
+        <v>33441871446.38307</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>23666125703.50061</v>
+        <v>33692718340.80677</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>23974593715.47846</v>
+        <v>33947604787.11732</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>24287587729.37075</v>
+        <v>34206562069.33541</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>24605140272.10539</v>
+        <v>34469619620.56876</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>24927281884.50672</v>
+        <v>34736804923.98363</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>25254041013.88385</v>
+        <v>35008143413.4671</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>25585443906.14037</v>
+        <v>35283658374.21404</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>25921514497.65147</v>
+        <v>35563370843.48309</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>26262274307.16732</v>
+        <v>35847299511.77795</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>26607742328.01338</v>
+        <v>36135460624.72025</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>26957934920.8685</v>
+        <v>36427867885.89046</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>27312865707.41359</v>
+        <v>36724532360.92284</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>27672545465.15169</v>
+        <v>37025462383.14777</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>28036982023.71077</v>
+        <v>37330663461.0835</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>28406180162.94687</v>
+        <v>37640138188.08458</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>28780141513.17341</v>
+        <v>37953886154.46108</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>29158864457.84705</v>
+        <v>38271903862.38503</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>29542344039.04591</v>
+        <v>38594184643.90518</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>29930571866.07795</v>
+        <v>38920718582.39124</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>30323536027.56057</v>
+        <v>39251492437.73043</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>30727541901.03885</v>
+        <v>39592810469.32368</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>31136322868.07426</v>
+        <v>39938405164.79211</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>31549855892.0347</v>
+        <v>40288252831.60136</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>31968114062.04779</v>
+        <v>40642326155.04043</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>32391066526.81691</v>
+        <v>41000594146.22829</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>32818678433.97385</v>
+        <v>41363022095.79424</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>33250910875.27987</v>
+        <v>41729571533.51291</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>33687720837.97521</v>
+        <v>42100200194.16305</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>34129061162.56247</v>
+        <v>42474861989.86265</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>34574880507.29583</v>
+        <v>42853506989.11639</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>35025123319.62912</v>
+        <v>43236081402.79364</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>35479729814.85819</v>
+        <v>43622527577.23331</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>35938635962.1714</v>
+        <v>44012783994.65138</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>36401773478.30099</v>
+        <v>44406785281.00202</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>36869069828.94337</v>
+        <v>44804462221.41974</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>37275028334.68344</v>
+        <v>45140321879.93401</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>37684389096.31198</v>
+        <v>45479108538.30144</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>38097073500.31098</v>
+        <v>45820748214.68522</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>38512999143.2804</v>
+        <v>46165163600.90997</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>38932079865.58939</v>
+        <v>46512274108.52749</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>39354225792.19034</v>
+        <v>46861995921.58556</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>39779343380.57024</v>
+        <v>47214242056.02583</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>40207335475.78631</v>
+        <v>47568922425.61034</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>40638101372.50647</v>
+        <v>47925943914.24873</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>41071536883.94804</v>
+        <v>48285210454.5718</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>41676457688.82803</v>
+        <v>48815546383.81676</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>42285059637.14362</v>
+        <v>49349156757.79527</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>42897205279.85439</v>
+        <v>49885913887.96903</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>43512753456.39708</v>
+        <v>50425686935.51747</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>44131559440.53197</v>
+        <v>50968342062.8513</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>44753475094.04852</v>
+        <v>51513742592.05579</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>45378349027.94843</v>
+        <v>52061749169.83881</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>46006026770.69191</v>
+        <v>52612219938.52857</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>46636350943.0642</v>
+        <v>53165010712.63869</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>47269161439.19158</v>
+        <v>53719975160.492</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>47556062773.67266</v>
+        <v>53928732150.83376</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>47843232757.74998</v>
+        <v>54137474427.32648</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>48130555809.88318</v>
+        <v>54346101916.25684</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>48417914444.02275</v>
+        <v>54554513210.72622</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>48705189351.515</v>
+        <v>54762605647.23059</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>48992259483.94285</v>
+        <v>54970275381.91277</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>49279002136.62842</v>
+        <v>55177417466.19421</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>49565293032.52591</v>
+        <v>55383925921.5007</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>49851006406.24541</v>
+        <v>55589693812.80972</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>50136015087.95485</v>
+        <v>55794613320.7607</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>50101465282.65191</v>
+        <v>55679850507.81474</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>50064740046.95708</v>
+        <v>55562808780.61577</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>50025748891.9991</v>
+        <v>55443418477.12857</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>49984399167.04574</v>
+        <v>55321608233.21478</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>49940596026.6674</v>
+        <v>55197304931.44698</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>49894242397.86402</v>
+        <v>55070433648.60863</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>49845238947.41873</v>
+        <v>54940917602.16389</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>49793484049.78825</v>
+        <v>54808678096.03345</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>49738873755.88887</v>
+        <v>54673634466.06499</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>49681301763.19272</v>
+        <v>54535704025.6472</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>49656278716.16685</v>
+        <v>54430421340.53883</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>49628168463.94263</v>
+        <v>54322174459.84264</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>49596854828.88768</v>
+        <v>54210871656.84428</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>49562219415.52235</v>
+        <v>54096419209.20881</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>49524141605.08424</v>
+        <v>53978721363.89343</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>49482498554.77111</v>
+        <v>53857680305.86696</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>49437165202.53845</v>
+        <v>53733196131.57327</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>49388014278.41258</v>
+        <v>53605166828.16797</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>49334916323.37386</v>
+        <v>53473488259.65111</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>49277739716.95838</v>
+        <v>53338054161.11808</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>49216350714.82215</v>
+        <v>53198756142.44798</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>49150613497.6116</v>
+        <v>53055483702.85264</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>49080390232.58072</v>
+        <v>52908124257.80681</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>49005541149.49397</v>
+        <v>52756563179.98243</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>48925924632.44762</v>
+        <v>52600683855.90491</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>48841397329.33583</v>
+        <v>52440367760.14407</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>48751814280.77097</v>
+        <v>52275494548.93801</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>48657029070.34674</v>
+        <v>52105942175.22714</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>48556893998.20014</v>
+        <v>51931587027.14452</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>48451260279.88343</v>
+        <v>51752304092.06413</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>48339978272.59669</v>
+        <v>51567967148.34762</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>48222897730.85397</v>
+        <v>51378448986.95289</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>48099868093.65648</v>
+        <v>51183621665.06733</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>47970738805.22164</v>
+        <v>50983356793.90299</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>47835359671.26685</v>
+        <v>50777525862.7396</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>47693581252.76271</v>
+        <v>50566000601.21622</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>47545255298.95647</v>
+        <v>50348653381.75555</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>47390235221.30979</v>
+        <v>50125357663.84633</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>47228376609.80378</v>
+        <v>49895988481.71609</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>47059537792.82487</v>
+        <v>49660422976.68338</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>46883580441.56445</v>
+        <v>49418540975.19504</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>46700370219.5335</v>
+        <v>49170225613.2197</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>46509777477.41701</v>
+        <v>48915364007.28715</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>46311677993.06231</v>
+        <v>48653847972.03002</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>46105953755.91915</v>
+        <v>48385574783.60277</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>45892493794.72253</v>
+        <v>48110447987.82182</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>45671195046.63494</v>
+        <v>47828378251.29237</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>45441963265.44681</v>
+        <v>47539284253.16406</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>45204713965.77607</v>
+        <v>47243093614.49513</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>44959373399.51317</v>
+        <v>46939743861.50497</v>
       </c>
     </row>
   </sheetData>
